--- a/ExaminerTools/Docs and Forms/Attendance&Timekeeping.xlsx
+++ b/ExaminerTools/Docs and Forms/Attendance&Timekeeping.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="64">
   <si>
     <t xml:space="preserve">Restoring Natural Touch to Active Prosthesis Users: </t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>Fri 07/04</t>
+  </si>
+  <si>
+    <t>Mark Rhodes - 001</t>
+  </si>
+  <si>
+    <t>Tom Knowles - 002</t>
   </si>
 </sst>
 </file>
@@ -312,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -479,11 +485,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,15 +549,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,15 +565,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -568,6 +611,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,7 +928,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,17 +943,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1"/>
@@ -888,253 +964,258 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="S1" s="6"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="17"/>
-      <c r="I6" s="26"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="17"/>
-      <c r="I7" s="25"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="19"/>
-      <c r="I8" s="24"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="19"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="19"/>
-      <c r="I9" s="23"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="14"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="17"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="17"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="19"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="19"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="17"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="D16:D17"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="A2:G2"/>
@@ -1149,7 +1230,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,17 +1245,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1"/>
@@ -1185,256 +1266,265 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="S1" s="6"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="17"/>
-      <c r="I6" s="26"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="17"/>
-      <c r="I7" s="25"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="19"/>
-      <c r="I8" s="24"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="19"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="19"/>
-      <c r="I9" s="23"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="14"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="17"/>
+      <c r="C10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="17"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="19"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="19"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="17"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1446,7 +1536,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,17 +1551,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1"/>
@@ -1482,250 +1572,258 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="S1" s="6"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="17"/>
-      <c r="I6" s="26"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="17"/>
-      <c r="I7" s="25"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="19"/>
-      <c r="I8" s="24"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="19"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="19"/>
-      <c r="I9" s="23"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="14"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="17"/>
+      <c r="C10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="17"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="19"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="19"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="17"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1743,7 +1841,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,17 +1856,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1"/>
@@ -1779,256 +1877,265 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="S1" s="6"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="17"/>
-      <c r="I6" s="26"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="17"/>
-      <c r="I7" s="25"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="19"/>
-      <c r="I8" s="24"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="19"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="19"/>
-      <c r="I9" s="23"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="34"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="17"/>
+      <c r="C10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="17"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="19"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="19"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="17"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2040,7 +2147,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,17 +2162,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1"/>
@@ -2076,256 +2183,261 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="S1" s="6"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="17"/>
-      <c r="I6" s="26"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="17"/>
-      <c r="I7" s="25"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="19"/>
-      <c r="I8" s="24"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="14"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="19"/>
-      <c r="I9" s="23"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="14"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="17"/>
+      <c r="C10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="17"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="19"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="19"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="17"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2352,17 +2464,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1"/>
@@ -2373,250 +2485,250 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="S1" s="6"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="17"/>
-      <c r="I6" s="26"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="17"/>
-      <c r="I7" s="25"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="23" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="19"/>
-      <c r="I8" s="24"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="14"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="19"/>
-      <c r="I9" s="23"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="14"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="17"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="19"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="17"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="19"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="19"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="17"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="17"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="19"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/ExaminerTools/Docs and Forms/Attendance&Timekeeping.xlsx
+++ b/ExaminerTools/Docs and Forms/Attendance&Timekeeping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="70">
   <si>
     <t xml:space="preserve">Restoring Natural Touch to Active Prosthesis Users: </t>
   </si>
@@ -221,6 +221,24 @@
   </si>
   <si>
     <t>Tom Knowles - 002</t>
+  </si>
+  <si>
+    <t>Tamsila Tauqir - 003</t>
+  </si>
+  <si>
+    <t>Patrick Brinson - 004</t>
+  </si>
+  <si>
+    <t>Myra Lowther - 005</t>
+  </si>
+  <si>
+    <t>Gabriella Miles - 006</t>
+  </si>
+  <si>
+    <t>Josh Minto - 007</t>
+  </si>
+  <si>
+    <t>Bin-Yang - 008</t>
   </si>
 </sst>
 </file>
@@ -318,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -537,11 +555,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,22 +791,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1281,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="19"/>
@@ -1156,7 +1368,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="29" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="6"/>
@@ -1168,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="14"/>
@@ -1229,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,8 +1496,344 @@
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="43"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="46"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="43"/>
+    </row>
+    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="43"/>
+    </row>
+    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2" max="7" width="25.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="2" customWidth="1"/>
+    <col min="11" max="29" width="10.28515625" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -1311,19 +1859,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>27</v>
@@ -1333,11 +1881,15 @@
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="34" t="s">
+        <v>67</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="I6" s="21"/>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1367,11 +1919,15 @@
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="19"/>
@@ -1397,19 +1953,23 @@
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="34" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1439,8 +1999,12 @@
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="12"/>
@@ -1459,12 +2023,14 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="34" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="14"/>
@@ -1484,9 +2050,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="34" t="s">
+        <v>69</v>
+      </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="34" t="s">
+        <v>67</v>
+      </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1516,27 +2086,28 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="G21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,7 +2162,7 @@
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -1617,19 +2188,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>27</v>
@@ -1639,11 +2210,15 @@
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="34" t="s">
+        <v>67</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="I6" s="21"/>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1673,11 +2248,15 @@
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="19"/>
@@ -1696,20 +2275,24 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="14"/>
+      <c r="G9" s="36"/>
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="34" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
@@ -1745,8 +2328,12 @@
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="12"/>
@@ -1765,12 +2352,14 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="34" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="34" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="14"/>
@@ -1790,9 +2379,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="34" t="s">
+        <v>69</v>
+      </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="34" t="s">
+        <v>67</v>
+      </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1822,26 +2415,29 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="G21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +2492,7 @@
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -1922,19 +2518,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>27</v>
@@ -1944,11 +2540,15 @@
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="34" t="s">
+        <v>67</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="I6" s="21"/>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1965,7 +2565,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="33"/>
       <c r="I7" s="20"/>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1978,13 +2578,15 @@
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="33" t="s">
-        <v>63</v>
-      </c>
+      <c r="F8" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="14"/>
       <c r="I8" s="19"/>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -2000,21 +2602,25 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="34"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="14"/>
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="34" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
@@ -2023,8 +2629,8 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
@@ -2050,8 +2656,12 @@
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="12"/>
@@ -2070,12 +2680,12 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="C16" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="32" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="14"/>
@@ -2087,7 +2697,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="33"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2095,9 +2705,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="D18" s="34" t="s">
+        <v>69</v>
+      </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="32" t="s">
+        <v>67</v>
+      </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2107,7 +2721,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2127,317 +2741,26 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="G21" s="17"/>
     </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="G8:G9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U21"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="2" customWidth="1"/>
-    <col min="11" max="29" width="10.28515625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="L1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-    </row>
-    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="12"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="12"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="14"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="14"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/ExaminerTools/Docs and Forms/Attendance&Timekeeping.xlsx
+++ b/ExaminerTools/Docs and Forms/Attendance&Timekeeping.xlsx
@@ -776,6 +776,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,22 +830,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,46 +851,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,15 +1155,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="1"/>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -1179,29 +1179,29 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1281,7 +1281,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="24" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="19"/>
@@ -1368,7 +1368,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="49" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="6"/>
@@ -1380,7 +1380,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="30"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="14"/>
@@ -1457,15 +1457,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="1"/>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -1481,29 +1481,29 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1519,7 +1519,7 @@
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1534,7 +1534,7 @@
       <c r="F5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="27" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="22" t="s">
@@ -1542,16 +1542,16 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="42" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="31" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="21"/>
@@ -1563,14 +1563,14 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="43"/>
+      <c r="G7" s="29"/>
       <c r="I7" s="20"/>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1580,18 +1580,18 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="31" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="19"/>
@@ -1603,170 +1603,170 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="32"/>
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="42" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="43"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="46"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="46"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="42" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="43"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="25" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="46"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="42" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="43"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="33"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="43"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1793,15 +1793,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="1"/>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -1817,29 +1817,29 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1881,13 +1881,13 @@
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="25" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="21"/>
@@ -1919,15 +1919,15 @@
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="24" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="19"/>
@@ -1953,15 +1953,15 @@
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1999,10 +1999,10 @@
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="25" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="8"/>
@@ -2023,14 +2023,14 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="25" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="25" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="14"/>
@@ -2050,11 +2050,11 @@
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="25" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="12"/>
@@ -2086,7 +2086,7 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="25" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="17"/>
@@ -2122,15 +2122,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="1"/>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -2146,29 +2146,29 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2210,13 +2210,13 @@
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="25" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="21"/>
@@ -2248,15 +2248,15 @@
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="47" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="19"/>
@@ -2275,22 +2275,22 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="36"/>
+      <c r="G9" s="48"/>
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2328,10 +2328,10 @@
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="25" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="8"/>
@@ -2352,14 +2352,14 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="25" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="25" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="14"/>
@@ -2379,11 +2379,11 @@
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="25" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="12"/>
@@ -2415,7 +2415,7 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="25" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="17"/>
@@ -2452,15 +2452,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="1"/>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -2476,29 +2476,29 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2540,13 +2540,13 @@
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="42" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="21"/>
@@ -2565,7 +2565,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="33"/>
+      <c r="G7" s="43"/>
       <c r="I7" s="20"/>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -2578,12 +2578,12 @@
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="25" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="42" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="14"/>
@@ -2602,7 +2602,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="33"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="14"/>
       <c r="I9" s="18"/>
     </row>
@@ -2610,15 +2610,15 @@
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="42" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2629,8 +2629,8 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
@@ -2656,10 +2656,10 @@
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="25" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="8"/>
@@ -2680,12 +2680,12 @@
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="42" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="14"/>
@@ -2697,7 +2697,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="33"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2705,11 +2705,11 @@
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="25" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="42" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="12"/>
@@ -2721,7 +2721,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2741,26 +2741,26 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="42" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="33"/>
+      <c r="F22" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2787,15 +2787,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
       <c r="H1" s="1"/>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -2811,29 +2811,29 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>

--- a/ExaminerTools/Docs and Forms/Attendance&Timekeeping.xlsx
+++ b/ExaminerTools/Docs and Forms/Attendance&Timekeeping.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="71">
   <si>
     <t xml:space="preserve">Restoring Natural Touch to Active Prosthesis Users: </t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Bin-Yang - 008</t>
+  </si>
+  <si>
+    <t>Finn Heath - 009</t>
   </si>
 </sst>
 </file>
@@ -815,6 +818,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -830,31 +839,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,15 +1158,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="1"/>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -1179,29 +1182,29 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1368,7 +1371,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="37" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="6"/>
@@ -1380,7 +1383,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="50"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="14"/>
@@ -1442,7 +1445,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,15 +1460,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="1"/>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -1481,15 +1484,15 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1545,7 +1548,7 @@
       <c r="B6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="47" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="8"/>
@@ -1566,7 +1569,7 @@
       <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1583,7 +1586,7 @@
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="47" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="6"/>
@@ -1606,7 +1609,7 @@
       <c r="B9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1617,7 +1620,7 @@
       <c r="B10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="47" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="8"/>
@@ -1633,7 +1636,7 @@
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1647,7 +1650,9 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="25" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
@@ -1663,10 +1668,10 @@
       <c r="B14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="47" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="8"/>
@@ -1677,8 +1682,8 @@
       <c r="B15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="29"/>
@@ -1687,7 +1692,7 @@
       <c r="B16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="47" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -1703,7 +1708,7 @@
       <c r="B17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1714,7 +1719,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="47" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="8"/>
@@ -1728,7 +1733,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="43"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="29"/>
@@ -1738,7 +1743,9 @@
         <v>19</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="32"/>
@@ -1748,7 +1755,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="34"/>
       <c r="F21" s="35" t="s">
         <v>64</v>
@@ -1756,17 +1763,18 @@
       <c r="G21" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1778,7 +1786,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,15 +1801,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="1"/>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -1817,29 +1825,29 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1983,7 +1991,9 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="25" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
@@ -2074,7 +2084,9 @@
         <v>19</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="14"/>
@@ -2107,7 +2119,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,15 +2134,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="1"/>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -2146,29 +2158,29 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2256,7 +2268,7 @@
       <c r="F8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="49" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="19"/>
@@ -2275,7 +2287,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="48"/>
+      <c r="G9" s="50"/>
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2312,7 +2324,9 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="25" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
@@ -2403,7 +2417,9 @@
         <v>19</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="14"/>
@@ -2437,7 +2453,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,15 +2468,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="1"/>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -2476,29 +2492,29 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2546,7 +2562,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="47" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="21"/>
@@ -2565,7 +2581,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="43"/>
+      <c r="G7" s="48"/>
       <c r="I7" s="20"/>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -2583,7 +2599,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="47" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="14"/>
@@ -2602,7 +2618,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="43"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="14"/>
       <c r="I9" s="18"/>
     </row>
@@ -2615,10 +2631,10 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="47" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2629,8 +2645,8 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
@@ -2640,7 +2656,9 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="47" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
@@ -2650,7 +2668,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="14"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
@@ -2685,7 +2703,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="47" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="14"/>
@@ -2697,7 +2715,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="43"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2709,7 +2727,7 @@
         <v>69</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="47" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="12"/>
@@ -2721,7 +2739,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="43"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2729,7 +2747,9 @@
         <v>19</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="14"/>
@@ -2741,26 +2761,27 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="47" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="43"/>
+      <c r="F22" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2787,15 +2808,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="1"/>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -2811,29 +2832,29 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>

--- a/ExaminerTools/Docs and Forms/Attendance&Timekeeping.xlsx
+++ b/ExaminerTools/Docs and Forms/Attendance&Timekeeping.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="72">
   <si>
     <t xml:space="preserve">Restoring Natural Touch to Active Prosthesis Users: </t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Finn Heath - 009</t>
+  </si>
+  <si>
+    <t>Daniel Gosden - 010</t>
   </si>
 </sst>
 </file>
@@ -839,6 +842,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,12 +855,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1445,7 +1448,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,14 +1502,14 @@
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1548,7 +1551,7 @@
       <c r="B6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="44" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="8"/>
@@ -1569,7 +1572,7 @@
       <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1586,10 +1589,12 @@
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="44" t="s">
+        <v>71</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="25" t="s">
         <v>65</v>
@@ -1609,8 +1614,8 @@
       <c r="B9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="32"/>
@@ -1620,7 +1625,7 @@
       <c r="B10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="44" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="8"/>
@@ -1636,7 +1641,7 @@
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1668,22 +1673,24 @@
       <c r="B14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="44" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="29"/>
+      <c r="G14" s="25" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="29"/>
@@ -1692,7 +1699,7 @@
       <c r="B16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="44" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -1708,7 +1715,7 @@
       <c r="B17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1719,7 +1726,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="44" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="8"/>
@@ -1733,7 +1740,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="29"/>
@@ -1743,7 +1750,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="44" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="6"/>
@@ -1755,7 +1762,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="34"/>
-      <c r="D21" s="48"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="34"/>
       <c r="F21" s="35" t="s">
         <v>64</v>
@@ -1763,18 +1770,19 @@
       <c r="G21" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1786,7 +1794,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,7 +1938,9 @@
       <c r="C8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="25" t="s">
         <v>65</v>
@@ -2017,7 +2027,9 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="25" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
@@ -2119,7 +2131,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,7 +2275,9 @@
       <c r="C8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="25" t="s">
         <v>65</v>
@@ -2350,7 +2364,9 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="25" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
@@ -2453,7 +2469,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,7 +2578,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="44" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="21"/>
@@ -2581,7 +2597,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="48"/>
+      <c r="G7" s="45"/>
       <c r="I7" s="20"/>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -2597,9 +2613,11 @@
       <c r="C8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="44" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="14"/>
@@ -2618,7 +2636,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="48"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="14"/>
       <c r="I9" s="18"/>
     </row>
@@ -2631,10 +2649,10 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="44" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2645,8 +2663,8 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
@@ -2656,7 +2674,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="44" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2668,7 +2686,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="48"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
@@ -2682,7 +2700,9 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="44" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
@@ -2692,7 +2712,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
@@ -2703,7 +2723,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="44" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="14"/>
@@ -2715,7 +2735,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="48"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2727,7 +2747,7 @@
         <v>69</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="44" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="12"/>
@@ -2739,7 +2759,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="48"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2761,27 +2781,28 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="44" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="48"/>
+      <c r="F22" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/ExaminerTools/Docs and Forms/Attendance&Timekeeping.xlsx
+++ b/ExaminerTools/Docs and Forms/Attendance&Timekeeping.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adr-smith\Documents\GitHub\PlatformEvaluation\ExaminerTools\Docs and Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Smith\Documents\GitHub\PlatformEvaluation\ExaminerTools\Docs and Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F09FF2-E675-42EF-B8D5-4FB5DC453750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="75">
   <si>
     <t xml:space="preserve">Restoring Natural Touch to Active Prosthesis Users: </t>
   </si>
@@ -245,12 +246,21 @@
   </si>
   <si>
     <t>Daniel Gosden - 010</t>
+  </si>
+  <si>
+    <t>Errored out</t>
+  </si>
+  <si>
+    <t>Toba Olajubu - 011</t>
+  </si>
+  <si>
+    <t>Gemma Gibbs - 012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,7 +308,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +351,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -711,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,7 +741,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,7 +792,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -815,12 +831,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,25 +858,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,25 +1179,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="2" customWidth="1"/>
-    <col min="11" max="29" width="10.28515625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="7" width="25.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" style="2" customWidth="1"/>
+    <col min="11" max="29" width="10.33203125" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1221,7 @@
       <c r="P1" s="1"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
@@ -1198,8 +1235,8 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
@@ -1222,7 +1259,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1245,7 +1282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
@@ -1262,7 +1299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
@@ -1279,7 +1316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1298,7 +1335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
@@ -1309,7 +1346,7 @@
       <c r="G9" s="14"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1356,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1329,7 +1366,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
@@ -1339,7 +1376,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
@@ -1349,7 +1386,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1359,7 +1396,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +1406,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
@@ -1381,7 +1418,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1428,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
@@ -1401,7 +1438,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1411,7 +1448,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
@@ -1421,7 +1458,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
@@ -1444,25 +1481,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="2" customWidth="1"/>
-    <col min="11" max="29" width="10.28515625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="7" width="25.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" style="2" customWidth="1"/>
+    <col min="11" max="29" width="10.33203125" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1523,7 @@
       <c r="P1" s="1"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
@@ -1500,16 +1537,16 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1524,7 +1561,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
         <v>4</v>
       </c>
@@ -1547,19 +1584,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="47" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="31" t="s">
-        <v>66</v>
-      </c>
+      <c r="G6" s="8"/>
       <c r="I6" s="21"/>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1568,11 +1603,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1585,18 +1620,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="47" t="s">
         <v>71</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="55" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="31" t="s">
@@ -1610,44 +1645,48 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="32"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="36"/>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="47" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="25" t="s">
-        <v>68</v>
-      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="45"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="30" t="s">
         <v>11</v>
       </c>
@@ -1655,11 +1694,9 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="30" t="s">
         <v>12</v>
       </c>
@@ -1669,15 +1706,15 @@
       <c r="F13" s="6"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>66</v>
+      <c r="D14" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1685,104 +1722,95 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="55" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="55" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="44" t="s">
-        <v>69</v>
-      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="56" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="29"/>
     </row>
-    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="45"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="29"/>
     </row>
-    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="44" t="s">
-        <v>70</v>
-      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="34"/>
-      <c r="D21" s="45"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="34"/>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1790,25 +1818,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="2" customWidth="1"/>
-    <col min="11" max="29" width="10.28515625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="7" width="25.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" style="2" customWidth="1"/>
+    <col min="11" max="29" width="10.33203125" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +1860,7 @@
       <c r="P1" s="1"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1874,8 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>38</v>
       </c>
@@ -1870,7 +1898,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1893,7 +1921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
@@ -1903,9 +1931,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="25" t="s">
-        <v>66</v>
-      </c>
+      <c r="G6" s="25"/>
       <c r="I6" s="21"/>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1914,7 +1940,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
@@ -1931,7 +1957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
@@ -1956,7 +1982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
@@ -1967,7 +1993,7 @@
       <c r="G9" s="14"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1977,13 +2003,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="25" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1993,29 +2019,29 @@
       <c r="F11" s="8"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="51" t="s">
+        <v>73</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
@@ -2023,7 +2049,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -2031,7 +2057,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
@@ -2041,13 +2067,11 @@
       <c r="F15" s="8"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>68</v>
-      </c>
+      <c r="C16" s="25"/>
       <c r="D16" s="25" t="s">
         <v>63</v>
       </c>
@@ -2055,9 +2079,11 @@
       <c r="F16" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
@@ -2067,13 +2093,13 @@
       <c r="F17" s="6"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="25" t="s">
-        <v>69</v>
+      <c r="D18" s="51" t="s">
+        <v>74</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="25" t="s">
@@ -2081,29 +2107,26 @@
       </c>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="25" t="s">
-        <v>70</v>
-      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
@@ -2116,10 +2139,12 @@
       <c r="G21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2127,25 +2152,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="2" customWidth="1"/>
-    <col min="11" max="29" width="10.28515625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="7" width="25.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" style="2" customWidth="1"/>
+    <col min="11" max="29" width="10.33203125" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2194,7 @@
       <c r="P1" s="1"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
@@ -2183,8 +2208,8 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>44</v>
       </c>
@@ -2207,7 +2232,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2230,7 +2255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
@@ -2251,7 +2276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
@@ -2268,7 +2293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
@@ -2282,7 +2307,7 @@
       <c r="F8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="53" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="19"/>
@@ -2293,7 +2318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
@@ -2301,10 +2326,10 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="50"/>
+      <c r="G9" s="54"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -2320,7 +2345,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -2330,7 +2355,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
@@ -2342,7 +2367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2352,7 +2377,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
@@ -2368,7 +2393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
@@ -2378,7 +2403,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
@@ -2394,7 +2419,7 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
@@ -2404,7 +2429,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
@@ -2418,7 +2443,7 @@
       </c>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
@@ -2428,7 +2453,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
@@ -2440,7 +2465,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
@@ -2465,25 +2490,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="2" customWidth="1"/>
-    <col min="11" max="29" width="10.28515625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="7" width="25.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" style="2" customWidth="1"/>
+    <col min="11" max="29" width="10.33203125" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2507,7 +2532,7 @@
       <c r="P1" s="1"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
@@ -2521,8 +2546,8 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>50</v>
       </c>
@@ -2545,7 +2570,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2568,7 +2593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
@@ -2578,7 +2603,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="51" t="s">
         <v>66</v>
       </c>
       <c r="I6" s="21"/>
@@ -2589,7 +2614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
@@ -2597,7 +2622,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="52"/>
       <c r="I7" s="20"/>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -2606,7 +2631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
@@ -2617,7 +2642,7 @@
         <v>71</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="51" t="s">
         <v>65</v>
       </c>
       <c r="G8" s="14"/>
@@ -2629,18 +2654,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="45"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="14"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -2649,24 +2674,24 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-    </row>
-    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
@@ -2674,11 +2699,11 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
@@ -2686,9 +2711,9 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="52"/>
+    </row>
+    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
@@ -2700,11 +2725,11 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
@@ -2712,9 +2737,9 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="52"/>
+    </row>
+    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
@@ -2723,22 +2748,22 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="51" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="45"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
@@ -2747,22 +2772,22 @@
         <v>69</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="51" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="45"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
@@ -2774,35 +2799,35 @@
       <c r="F20" s="6"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="51" t="s">
         <v>64</v>
       </c>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="45"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2810,25 +2835,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="2" customWidth="1"/>
-    <col min="11" max="29" width="10.28515625" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="7" width="25.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.44140625" style="2" customWidth="1"/>
+    <col min="11" max="29" width="10.33203125" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2852,7 +2877,7 @@
       <c r="P1" s="1"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>26</v>
       </c>
@@ -2866,8 +2891,8 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>56</v>
       </c>
@@ -2890,7 +2915,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
@@ -2913,7 +2938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
@@ -2930,7 +2955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
@@ -2947,7 +2972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
@@ -2964,7 +2989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
@@ -2975,7 +3000,7 @@
       <c r="G9" s="14"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
@@ -2985,7 +3010,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -2995,7 +3020,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
@@ -3005,7 +3030,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
@@ -3015,7 +3040,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
@@ -3025,7 +3050,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
@@ -3035,7 +3060,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
@@ -3045,7 +3070,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
@@ -3055,7 +3080,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>17</v>
       </c>
@@ -3065,7 +3090,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
@@ -3075,7 +3100,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
@@ -3085,7 +3110,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>20</v>
       </c>
